--- a/src/main/resources/static/product_template.xlsx
+++ b/src/main/resources/static/product_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My stuffs\Study\git-repository\janta-store\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C8DD5-CC6F-4F30-9B21-620B76F0D9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3548B631-01E1-46A9-BBEE-0FD575094472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A4E218C-3AAE-46E7-B96A-8630A9A0AED0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product Name</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Image url</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB70C035-62ED-4ECF-B778-3F8EBEB79EF8}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +444,7 @@
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +471,12 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
